--- a/reports/减排系数.xlsx
+++ b/reports/减排系数.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\Project\Xiaoshan\XS_local_emis\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314D0087-6545-4115-BFDF-580B1084F6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FD16D1-9BBC-4E83-8A77-39C3DC03C483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2490" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,16 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="53">
-  <si>
-    <t>MEIC</t>
-  </si>
-  <si>
-    <t>LocalPrimarySource</t>
-  </si>
-  <si>
-    <t>LocalSecondarySource</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="52">
   <si>
     <t>SourceType</t>
   </si>
@@ -194,15 +185,23 @@
     <t>其他</t>
   </si>
   <si>
-    <t>ReductionFactor1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReductionFactor2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReductionFactor3</t>
+    <t>RF23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sector</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrimarySource</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecondarySource</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -557,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -569,113 +568,101 @@
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E3" s="2">
         <v>0.85</v>
       </c>
       <c r="F3" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F4" s="2">
         <v>0.7</v>
       </c>
-      <c r="G4" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2">
         <v>0.9</v>
@@ -683,22 +670,19 @@
       <c r="F5" s="2">
         <v>0.8</v>
       </c>
-      <c r="G5" s="2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2">
         <v>0.9</v>
@@ -706,114 +690,99 @@
       <c r="F6" s="2">
         <v>0.8</v>
       </c>
-      <c r="G6" s="2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="F7" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="F8" s="2">
         <v>0.75</v>
       </c>
-      <c r="G8" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="F9" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="G9" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="F10" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="G10" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2">
         <v>0.9</v>
@@ -821,45 +790,39 @@
       <c r="F11" s="2">
         <v>0.8</v>
       </c>
-      <c r="G11" s="2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E12" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F12" s="2">
         <v>0.8</v>
       </c>
-      <c r="F12" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E13" s="2">
         <v>0.9</v>
@@ -867,422 +830,365 @@
       <c r="F13" s="2">
         <v>0.8</v>
       </c>
-      <c r="G13" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="C25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="C30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E31" s="2">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="F31" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>
